--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06B525-2ADF-4EE8-A8FF-462C8041B116}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC439E7-4178-4348-A79D-E9483D70A928}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="17">
   <si>
     <t>mediumgrid</t>
   </si>
@@ -71,12 +71,6 @@
   </si>
   <si>
     <t>SEM random pick quando q-value = 0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.1</t>
   </si>
 </sst>
 </file>
@@ -92,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +129,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -144,19 +144,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -439,33 +456,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="B1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -473,477 +508,455 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2000</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>2000</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5000</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="1">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1">
         <v>5000</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4">
+      <c r="B4" s="9"/>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5000</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="1">
         <v>9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>5000</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7"/>
-      <c r="C5">
+      <c r="B5" s="9"/>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>10000</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="1">
         <v>48</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>10000</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6">
+      <c r="B6" s="9"/>
+      <c r="C6" s="1">
         <v>77</v>
       </c>
-      <c r="D6">
-        <v>15000</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6">
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="1">
         <v>86</v>
       </c>
-      <c r="J6">
-        <v>15000</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1">
         <v>75</v>
       </c>
-      <c r="D7">
-        <v>15000</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7">
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="1">
         <v>75</v>
       </c>
-      <c r="J7">
-        <v>15000</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1">
         <v>61</v>
       </c>
-      <c r="D8">
-        <v>15000</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="1">
         <v>76</v>
       </c>
-      <c r="J8">
-        <v>15000</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1">
         <v>54</v>
       </c>
-      <c r="D9">
-        <v>15000</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9">
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="1">
         <v>68</v>
       </c>
-      <c r="J9">
-        <v>15000</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10">
+      <c r="B10" s="9"/>
+      <c r="C10" s="1">
         <v>54</v>
       </c>
-      <c r="D10">
-        <v>15000</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="1">
         <v>59</v>
       </c>
-      <c r="J10">
-        <v>15000</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="J10" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11">
+      <c r="B11" s="9"/>
+      <c r="C11" s="1">
         <v>23</v>
       </c>
-      <c r="D11">
-        <v>15000</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11">
+      <c r="H11" s="9"/>
+      <c r="I11" s="1">
         <v>33</v>
       </c>
-      <c r="J11">
-        <v>15000</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12">
+      <c r="B12" s="9"/>
+      <c r="C12" s="1">
         <v>31</v>
       </c>
-      <c r="D12">
-        <v>15000</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="1">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12">
+      <c r="H12" s="9"/>
+      <c r="I12" s="1">
         <v>43</v>
       </c>
-      <c r="J12">
-        <v>15000</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="1">
+        <v>15000</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13">
-        <v>36</v>
-      </c>
-      <c r="J13">
-        <v>15000</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>18</v>
+      <c r="B13" s="9"/>
+      <c r="C13" s="1">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1">
+        <v>89</v>
+      </c>
+      <c r="J13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14">
-        <v>82</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="9"/>
+      <c r="C14" s="1">
+        <v>77</v>
+      </c>
+      <c r="D14" s="1">
         <v>20000</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14">
-        <v>89</v>
-      </c>
-      <c r="J14">
+      <c r="E14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="1">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1">
         <v>20000</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15">
-        <v>77</v>
-      </c>
-      <c r="D15">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="K14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15">
-        <v>75</v>
-      </c>
-      <c r="J15">
-        <v>20000</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:B15"/>
-    <mergeCell ref="H2:H15"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="H2:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
